--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B00320-7236-4ADD-A690-37F088420B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C9AF1-7001-464D-929B-95AEE1C1DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>PN</t>
   </si>
@@ -58,6 +58,268 @@
   </si>
   <si>
     <t>NOTE</t>
+  </si>
+  <si>
+    <t>851-11328-T078</t>
+  </si>
+  <si>
+    <t>11328-T078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Power Transformers Flyback Transformer for LT8316</t>
+  </si>
+  <si>
+    <t>Sumida</t>
+  </si>
+  <si>
+    <t>Q-000000001</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>MOSFETs N-Ch 120V 44A TDSON-8 OptiMOS 3</t>
+  </si>
+  <si>
+    <t>726-BSC190N12NS3GXT</t>
+  </si>
+  <si>
+    <t>BSC190N12NS3 G</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>771-PMEG6045ETPX</t>
+  </si>
+  <si>
+    <t>PMEG6045ETPX</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers PMEG6045ETP/SOD128/FlatPower</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D-000000001</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>490-TBP02R1-381-02BE</t>
+  </si>
+  <si>
+    <t>D-000000002</t>
+  </si>
+  <si>
+    <t>J-000000001</t>
+  </si>
+  <si>
+    <t>TBP02R1-381-02BE</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>Pluggable Terminal Blocks Terminal block, pluggable, 3.81, receptical, 2 pole, blue</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Switching Voltage Regulators 60V Low-IQ No-Opto Iso. Flyback Ctrl</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>LT8306RS6#WTRMPBF</t>
+  </si>
+  <si>
+    <t>584-LT8306RS6#WTRMPB</t>
+  </si>
+  <si>
+    <t>U-000000001</t>
+  </si>
+  <si>
+    <t>863-1SMA5928BT3G</t>
+  </si>
+  <si>
+    <t>1SMA5928BT3G</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>Zener Diodes 13V 1.5W</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>754-KRL3216ECR006FT1</t>
+  </si>
+  <si>
+    <t>KRL3216E-C-R006-F-T1</t>
+  </si>
+  <si>
+    <t>R-000000001</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>Current Sense Resistors - SMD 0.006 ohm 1% 1.5W</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>667-EEH-ZE1H101P</t>
+  </si>
+  <si>
+    <t>R-000000002</t>
+  </si>
+  <si>
+    <t>C-000000001</t>
+  </si>
+  <si>
+    <t>EEH-ZE1H101P</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Aluminium Organic Polymer Capacitors 50v 100uf 145degC 2000h AEC-Q200</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>81-GRM32ER61H106KA2L</t>
+  </si>
+  <si>
+    <t>GRM32ER61H106KA12L</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10 uF 50 VDC 10% 1210 X5R</t>
+  </si>
+  <si>
+    <t>C2,C3,C4,C5</t>
+  </si>
+  <si>
+    <t>C-000000002</t>
+  </si>
+  <si>
+    <t>963-TMK105B7104KV-FR</t>
+  </si>
+  <si>
+    <t>C-000000003</t>
+  </si>
+  <si>
+    <t>TMK105B7104KV-FR</t>
+  </si>
+  <si>
+    <t>TAIYO YUDEN</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>81-GRM32ER71E226KE5L</t>
+  </si>
+  <si>
+    <t>C-000000004</t>
+  </si>
+  <si>
+    <t>GRM32ER71E226KE15L</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 22 uF 25 VDC 10% 1210 X7R</t>
+  </si>
+  <si>
+    <t>C7,C8,C9,C10</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-100K-E3</t>
+  </si>
+  <si>
+    <t>CRCW0603100KFKEA</t>
+  </si>
+  <si>
+    <t>Vishay </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 100Kohms 1%</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-118K-E3</t>
+  </si>
+  <si>
+    <t>CRCW1206118KFKEA</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/4watt 118Kohms 1%</t>
+  </si>
+  <si>
+    <t>R-000000003</t>
+  </si>
+  <si>
+    <t>77-VJ1825Y105KXAAT</t>
+  </si>
+  <si>
+    <t>VJ1825Y105KXAAT</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 1.0uF 50volts X7R 20%</t>
+  </si>
+  <si>
+    <t>C11,C12</t>
+  </si>
+  <si>
+    <t>C-000000005</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-28K-E3</t>
+  </si>
+  <si>
+    <t>CRCW060328K0FKEA</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 28Kohms 1%</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R2,R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R-000000004</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 
+963-MSAST105SB7104KF RPLCMT PN 25V 0.1uF X7R 0402 10%</t>
   </si>
 </sst>
 </file>
@@ -80,20 +342,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,25 +401,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,83 +736,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD48144A-E0E1-466C-9F34-5800A3EFE081}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="https://eu.mouser.com/manufacturer/onsemi/" xr:uid="{0A4E1519-6AE6-467B-8862-455FB64022F3}"/>
+    <hyperlink ref="E8" r:id="rId2" display="https://eu.mouser.com/manufacturer/susumu/" xr:uid="{1D3384BF-4EB9-4739-AEAD-E2CB61D98DFD}"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://eu.mouser.com/manufacturer/murataelectronics/" xr:uid="{80DD561D-7EF4-4A2C-9887-B110004ED436}"/>
+    <hyperlink ref="E11" r:id="rId4" display="https://eu.mouser.com/manufacturer/taiyo-yuden/" xr:uid="{9E3C07DA-7045-4CA8-98A4-653DC7F3B5C6}"/>
+    <hyperlink ref="E12" r:id="rId5" display="https://eu.mouser.com/manufacturer/murataelectronics/" xr:uid="{E1EF4A96-F11E-4656-8E9C-076B89661490}"/>
+    <hyperlink ref="E13" r:id="rId6" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{3E56A900-2B1B-43E2-8342-8D4C9E8495E3}"/>
+    <hyperlink ref="E14" r:id="rId7" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C80CDECF-6749-4AE0-8AA2-5A25E2978184}"/>
+    <hyperlink ref="E15" r:id="rId8" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{D4895093-C8B5-45E4-864C-D39944929C9B}"/>
+    <hyperlink ref="E16" r:id="rId9" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{1035BA7D-07C6-414F-940D-04CBE8757E68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C9AF1-7001-464D-929B-95AEE1C1DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197CF1CD-F13F-4FD6-8D06-7CE320A65A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD48144A-E0E1-466C-9F34-5800A3EFE081}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>

--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197CF1CD-F13F-4FD6-8D06-7CE320A65A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20BE93-EFB6-4E18-A17B-ED6BABA25B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>PN</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Schottky Diodes &amp; Rectifiers PMEG6045ETP/SOD128/FlatPower</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>D-000000001</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>Zener Diodes 13V 1.5W</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
   <si>
     <t>754-KRL3216ECR006FT1</t>
@@ -320,6 +314,27 @@
   <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 
 963-MSAST105SB7104KF RPLCMT PN 25V 0.1uF X7R 0402 10%</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Cap Cer 1210 3nF 250VDC X8G 5%</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C1210C302JATAC7411</t>
+  </si>
+  <si>
+    <t>80-C1210C302JATACLR</t>
   </si>
 </sst>
 </file>
@@ -736,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD48144A-E0E1-466C-9F34-5800A3EFE081}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +773,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -860,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
@@ -881,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -892,28 +907,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -924,28 +939,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -956,28 +971,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -988,28 +1003,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1020,28 +1035,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1052,28 +1067,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -1084,28 +1099,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1116,28 +1131,28 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1148,31 +1163,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -1180,28 +1195,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1212,28 +1227,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1244,41 +1259,73 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1291,9 +1338,10 @@
     <hyperlink ref="E13" r:id="rId6" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{3E56A900-2B1B-43E2-8342-8D4C9E8495E3}"/>
     <hyperlink ref="E14" r:id="rId7" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C80CDECF-6749-4AE0-8AA2-5A25E2978184}"/>
     <hyperlink ref="E15" r:id="rId8" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{D4895093-C8B5-45E4-864C-D39944929C9B}"/>
-    <hyperlink ref="E16" r:id="rId9" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{1035BA7D-07C6-414F-940D-04CBE8757E68}"/>
+    <hyperlink ref="E17" r:id="rId9" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{1035BA7D-07C6-414F-940D-04CBE8757E68}"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C36F75B5-7F68-4A86-BF42-CDB0FF49779F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20BE93-EFB6-4E18-A17B-ED6BABA25B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5017D-AEFD-4134-A4B9-C05F1C22ACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>PN</t>
   </si>
@@ -328,13 +328,43 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Cap Cer 1210 3nF 250VDC X8G 5%</t>
   </si>
   <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C1210C302JATAC7411</t>
-  </si>
-  <si>
-    <t>80-C1210C302JATACLR</t>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 1.4Kohms 1%</t>
+  </si>
+  <si>
+    <t>CRCW06031K40FKEA</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-1.4K-E3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Micro Commercial Components (MCC)</t>
+  </si>
+  <si>
+    <t>BZT52C10-TP</t>
+  </si>
+  <si>
+    <t>833-BZT52C10-TP</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Vishay / Siliconix</t>
+  </si>
+  <si>
+    <t>MOSFETs TO252 60V 5.1A P-CH MOSFET</t>
+  </si>
+  <si>
+    <t>IRFR9014TRPBF-BE3</t>
+  </si>
+  <si>
+    <t>78-IRFR9014TRPBF-BE3</t>
   </si>
 </sst>
 </file>
@@ -751,9 +781,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD48144A-E0E1-466C-9F34-5800A3EFE081}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1285,28 +1315,28 @@
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>14</v>
@@ -1315,17 +1345,113 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1338,10 +1464,11 @@
     <hyperlink ref="E13" r:id="rId6" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{3E56A900-2B1B-43E2-8342-8D4C9E8495E3}"/>
     <hyperlink ref="E14" r:id="rId7" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C80CDECF-6749-4AE0-8AA2-5A25E2978184}"/>
     <hyperlink ref="E15" r:id="rId8" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{D4895093-C8B5-45E4-864C-D39944929C9B}"/>
-    <hyperlink ref="E17" r:id="rId9" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{1035BA7D-07C6-414F-940D-04CBE8757E68}"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C36F75B5-7F68-4A86-BF42-CDB0FF49779F}"/>
+    <hyperlink ref="E16" r:id="rId9" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{C36F75B5-7F68-4A86-BF42-CDB0FF49779F}"/>
+    <hyperlink ref="E17" r:id="rId10" display="https://eu.mouser.com/manufacturer/vishay-dale/" xr:uid="{5B3F48E2-EC32-4D91-89DB-12ACC896A097}"/>
+    <hyperlink ref="E18" r:id="rId11" display="https://eu.mouser.com/manufacturer/onsemi/" xr:uid="{9A9C2777-5FA2-451D-B673-1E761A039531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5017D-AEFD-4134-A4B9-C05F1C22ACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11ADA5D-27CC-4843-AC15-70A0AC4567C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>490-TBP02R1-381-02BE</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>78-IRFR9014TRPBF-BE3</t>
+  </si>
+  <si>
+    <t>J2,J1</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
@@ -937,28 +937,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -969,28 +969,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1001,28 +1001,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1033,28 +1033,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1065,28 +1065,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1097,28 +1097,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -1129,28 +1129,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1161,28 +1161,28 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1193,28 +1193,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1225,28 +1225,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1257,28 +1257,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1289,28 +1289,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1321,28 +1321,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="I17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1353,28 +1353,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -1385,22 +1385,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>14</v>
@@ -1417,28 +1417,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="I20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">

--- a/0011 Schematic Capture/BOM.xlsx
+++ b/0011 Schematic Capture/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 WORKSPACE\Flyback-Converter-Mosfet_model\0011 Schematic Capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11ADA5D-27CC-4843-AC15-70A0AC4567C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9A886A-5886-4A56-B5A7-6F8203471D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C839117-2EDE-484D-AE42-B51F11323D6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>PN</t>
   </si>
@@ -319,12 +319,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Cap Cer 1210 3nF 250VDC X8G 5%</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -338,15 +332,6 @@
   </si>
   <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>Micro Commercial Components (MCC)</t>
-  </si>
-  <si>
-    <t>BZT52C10-TP</t>
-  </si>
-  <si>
-    <t>833-BZT52C10-TP</t>
   </si>
   <si>
     <t>Q2</t>
@@ -781,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD48144A-E0E1-466C-9F34-5800A3EFE081}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>34</v>
@@ -1321,22 +1306,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>14</v>
@@ -1353,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>44</v>
@@ -1385,22 +1370,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>14</v>
@@ -1409,49 +1394,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
